--- a/raw_data/20200818_saline/20200818_Sensor1_Test_53.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_53.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67454526-49F1-463F-8525-AFE93C55CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>46989.257182</v>
+        <v>46989.257182000001</v>
       </c>
       <c r="B2" s="1">
         <v>13.052571</v>
       </c>
       <c r="C2" s="1">
-        <v>899.682000</v>
+        <v>899.68200000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.739000</v>
+        <v>-199.739</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>46999.647898</v>
+        <v>46999.647898000003</v>
       </c>
       <c r="G2" s="1">
         <v>13.055458</v>
       </c>
       <c r="H2" s="1">
-        <v>917.706000</v>
+        <v>917.70600000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.262000</v>
+        <v>-169.262</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>47010.465618</v>
+        <v>47010.465618000002</v>
       </c>
       <c r="L2" s="1">
         <v>13.058463</v>
       </c>
       <c r="M2" s="1">
-        <v>941.736000</v>
+        <v>941.73599999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.728000</v>
+        <v>-120.72799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>47020.991987</v>
+        <v>47020.991987000001</v>
       </c>
       <c r="Q2" s="1">
         <v>13.061387</v>
       </c>
       <c r="R2" s="1">
-        <v>948.811000</v>
+        <v>948.81100000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.409000</v>
+        <v>-104.40900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>47031.544599</v>
+        <v>47031.544599000001</v>
       </c>
       <c r="V2" s="1">
         <v>13.064318</v>
       </c>
       <c r="W2" s="1">
-        <v>955.536000</v>
+        <v>955.53599999999994</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.343700</v>
+        <v>-89.343699999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>47042.312284</v>
@@ -556,88 +972,88 @@
         <v>13.067309</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.964000</v>
+        <v>962.96400000000006</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.641300</v>
+        <v>-77.641300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>47052.801641</v>
+        <v>47052.801640999998</v>
       </c>
       <c r="AF2" s="1">
         <v>13.070223</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.750000</v>
+        <v>967.75</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.358000</v>
+        <v>-75.358000000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>47063.233500</v>
+        <v>47063.233500000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.073120</v>
+        <v>13.073119999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.035000</v>
+        <v>975.03499999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-80.061900</v>
+        <v>-80.061899999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>47073.817643</v>
+        <v>47073.817643000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.076060</v>
+        <v>13.07606</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.147000</v>
+        <v>983.14700000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.635400</v>
+        <v>-91.635400000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>47084.800543</v>
+        <v>47084.800542999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.079111</v>
+        <v>13.079110999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.080000</v>
+        <v>993.08</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.341000</v>
+        <v>-109.34099999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>47096.226880</v>
+        <v>47096.226880000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>13.082285</v>
+        <v>13.082285000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>47107.278242</v>
@@ -646,225 +1062,225 @@
         <v>13.085355</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.304000</v>
+        <v>-197.304</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>47118.090067</v>
+        <v>47118.090066999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.088358</v>
+        <v>13.088357999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.820000</v>
+        <v>1106.82</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.688000</v>
+        <v>-314.68799999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>47129.203398</v>
+        <v>47129.203397999998</v>
       </c>
       <c r="BO2" s="1">
         <v>13.091445</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.924000</v>
+        <v>-499.92399999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>47139.951702</v>
+        <v>47139.951701999998</v>
       </c>
       <c r="BT2" s="1">
         <v>13.094431</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.703000</v>
+        <v>-703.70299999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>47150.623625</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.097395</v>
+        <v>13.097395000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.950000</v>
+        <v>1473.95</v>
       </c>
       <c r="CA2" s="1">
-        <v>-920.563000</v>
+        <v>-920.56299999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>47161.915545</v>
+        <v>47161.915545000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.100532</v>
+        <v>13.100531999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1833.850000</v>
+        <v>1833.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1435.900000</v>
+        <v>-1435.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>46989.618270</v>
+        <v>46989.618269999999</v>
       </c>
       <c r="B3" s="1">
-        <v>13.052672</v>
+        <v>13.052671999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>899.755000</v>
+        <v>899.755</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.678000</v>
+        <v>-199.678</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>47000.018414</v>
+        <v>47000.018413999998</v>
       </c>
       <c r="G3" s="1">
-        <v>13.055561</v>
+        <v>13.055561000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.867000</v>
+        <v>917.86699999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.157000</v>
+        <v>-169.15700000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>47010.852001</v>
+        <v>47010.852000999999</v>
       </c>
       <c r="L3" s="1">
-        <v>13.058570</v>
+        <v>13.05857</v>
       </c>
       <c r="M3" s="1">
-        <v>941.929000</v>
+        <v>941.92899999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.544000</v>
+        <v>-120.544</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>47021.363752</v>
+        <v>47021.363751999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>13.061490</v>
+        <v>13.061489999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.817000</v>
+        <v>948.81700000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>47032.261846</v>
+        <v>47032.261846000001</v>
       </c>
       <c r="V3" s="1">
         <v>13.064517</v>
       </c>
       <c r="W3" s="1">
-        <v>955.682000</v>
+        <v>955.68200000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.408800</v>
+        <v>-89.408799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>47042.653526</v>
+        <v>47042.653526000002</v>
       </c>
       <c r="AA3" s="1">
         <v>13.067404</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.009000</v>
+        <v>963.00900000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.560200</v>
+        <v>-77.560199999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>47053.149833</v>
+        <v>47053.149833000003</v>
       </c>
       <c r="AF3" s="1">
         <v>13.070319</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.776000</v>
+        <v>967.77599999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.368900</v>
+        <v>-75.368899999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>47063.581196</v>
+        <v>47063.581195999999</v>
       </c>
       <c r="AK3" s="1">
         <v>13.073217</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.022000</v>
+        <v>975.02200000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-80.021800</v>
+        <v>-80.021799999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>47074.466892</v>
+        <v>47074.466891999997</v>
       </c>
       <c r="AP3" s="1">
         <v>13.076241</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.156000</v>
+        <v>983.15599999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.623100</v>
+        <v>-91.623099999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>47085.488029</v>
@@ -873,58 +1289,58 @@
         <v>13.079302</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.063000</v>
+        <v>993.06299999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.381000</v>
+        <v>-109.381</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>47096.658897</v>
+        <v>47096.658897000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.082405</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>47107.696866</v>
+        <v>47107.696865999998</v>
       </c>
       <c r="BE3" s="1">
         <v>13.085471</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.309000</v>
+        <v>-197.309</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>47118.468482</v>
+        <v>47118.468481999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.088463</v>
+        <v>13.088463000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.712000</v>
+        <v>-314.71199999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>47129.642883</v>
@@ -933,105 +1349,105 @@
         <v>13.091567</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-499.965000</v>
+        <v>-499.96499999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>47140.477999</v>
+        <v>47140.477999000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>13.094577</v>
+        <v>13.094576999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.120000</v>
+        <v>1337.12</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.781000</v>
+        <v>-703.78099999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>47151.090386</v>
+        <v>47151.090386000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.097525</v>
+        <v>13.097524999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.940000</v>
+        <v>1473.94</v>
       </c>
       <c r="CA3" s="1">
-        <v>-920.465000</v>
+        <v>-920.46500000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>47162.224057</v>
+        <v>47162.224056999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.100618</v>
+        <v>13.100618000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1833.650000</v>
+        <v>1833.65</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1437.020000</v>
+        <v>-1437.02</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>46989.981851</v>
+        <v>46989.981850999997</v>
       </c>
       <c r="B4" s="1">
         <v>13.052773</v>
       </c>
       <c r="C4" s="1">
-        <v>899.749000</v>
+        <v>899.74900000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.510000</v>
+        <v>-199.51</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>47000.362143</v>
+        <v>47000.362142999998</v>
       </c>
       <c r="G4" s="1">
-        <v>13.055656</v>
+        <v>13.055656000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>917.922000</v>
+        <v>917.92200000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.602000</v>
+        <v>-169.602</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>47011.544415</v>
+        <v>47011.544414999997</v>
       </c>
       <c r="L4" s="1">
         <v>13.058762</v>
       </c>
       <c r="M4" s="1">
-        <v>941.826000</v>
+        <v>941.82600000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.624000</v>
+        <v>-120.624</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>47022.062114</v>
@@ -1040,118 +1456,118 @@
         <v>13.061684</v>
       </c>
       <c r="R4" s="1">
-        <v>948.784000</v>
+        <v>948.78399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.454000</v>
+        <v>-104.45399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>47032.608549</v>
+        <v>47032.608548999997</v>
       </c>
       <c r="V4" s="1">
         <v>13.064613</v>
       </c>
       <c r="W4" s="1">
-        <v>955.612000</v>
+        <v>955.61199999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.324900</v>
+        <v>-89.3249</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>47043.004168</v>
+        <v>47043.004167999999</v>
       </c>
       <c r="AA4" s="1">
         <v>13.067501</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.987000</v>
+        <v>962.98699999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.629900</v>
+        <v>-77.629900000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>47053.496538</v>
+        <v>47053.496537999999</v>
       </c>
       <c r="AF4" s="1">
         <v>13.070416</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.750000</v>
+        <v>967.75</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.345400</v>
+        <v>-75.345399999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>47064.246362</v>
+        <v>47064.246361999998</v>
       </c>
       <c r="AK4" s="1">
         <v>13.073402</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.037000</v>
+        <v>975.03700000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-80.042400</v>
+        <v>-80.042400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>47074.879564</v>
+        <v>47074.879564000003</v>
       </c>
       <c r="AP4" s="1">
         <v>13.076355</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.168000</v>
+        <v>983.16800000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.629400</v>
+        <v>-91.629400000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>47085.905630</v>
+        <v>47085.905630000001</v>
       </c>
       <c r="AU4" s="1">
         <v>13.079418</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.061000</v>
+        <v>993.06100000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.360000</v>
+        <v>-109.36</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>47097.043828</v>
+        <v>47097.043828000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.082512</v>
+        <v>13.082511999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.042000</v>
+        <v>-125.042</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>47108.061424</v>
@@ -1160,542 +1576,542 @@
         <v>13.085573</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.080000</v>
+        <v>1040.08</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.309000</v>
+        <v>-197.309</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>47118.873245</v>
+        <v>47118.873245000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.088576</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.790000</v>
+        <v>1106.79</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.687000</v>
+        <v>-314.68700000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>47130.039155</v>
+        <v>47130.039154999999</v>
       </c>
       <c r="BO4" s="1">
         <v>13.091678</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-499.973000</v>
+        <v>-499.97300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>47140.794938</v>
+        <v>47140.794937999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>13.094665</v>
+        <v>13.094665000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.250000</v>
+        <v>1337.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.858000</v>
+        <v>-703.85799999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>47151.539271</v>
+        <v>47151.539271000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.097650</v>
+        <v>13.09765</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.030000</v>
+        <v>1474.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-920.649000</v>
+        <v>-920.649</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>47162.754815</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.100765</v>
+        <v>13.100765000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1832.610000</v>
+        <v>1832.61</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1435.600000</v>
+        <v>-1435.6</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>46990.320108</v>
       </c>
       <c r="B5" s="1">
-        <v>13.052867</v>
+        <v>13.052867000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>899.820000</v>
+        <v>899.82</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.607000</v>
+        <v>-199.607</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>47001.052550</v>
+        <v>47001.05255</v>
       </c>
       <c r="G5" s="1">
-        <v>13.055848</v>
+        <v>13.055847999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>917.742000</v>
+        <v>917.74199999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.383000</v>
+        <v>-169.38300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>47011.888640</v>
+        <v>47011.888639999997</v>
       </c>
       <c r="L5" s="1">
-        <v>13.058858</v>
+        <v>13.058858000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.798000</v>
+        <v>941.798</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.575000</v>
+        <v>-120.575</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>47022.411266</v>
+        <v>47022.411266000003</v>
       </c>
       <c r="Q5" s="1">
         <v>13.061781</v>
       </c>
       <c r="R5" s="1">
-        <v>948.752000</v>
+        <v>948.75199999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.419000</v>
+        <v>-104.419</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>47032.946292</v>
+        <v>47032.946292000001</v>
       </c>
       <c r="V5" s="1">
         <v>13.064707</v>
       </c>
       <c r="W5" s="1">
-        <v>955.525000</v>
+        <v>955.52499999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.366200</v>
+        <v>-89.366200000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>47043.660374</v>
+        <v>47043.660373999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.067683</v>
+        <v>13.067683000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.999000</v>
+        <v>962.99900000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.679100</v>
+        <v>-77.679100000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>47054.152249</v>
+        <v>47054.152248999999</v>
       </c>
       <c r="AF5" s="1">
         <v>13.070598</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.746000</v>
+        <v>967.74599999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.314900</v>
+        <v>-75.314899999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47064.625311</v>
+        <v>47064.625311000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>13.073507</v>
+        <v>13.073506999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.021000</v>
+        <v>975.02099999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-80.027400</v>
+        <v>-80.0274</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>47075.257517</v>
+        <v>47075.257516999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.076460</v>
+        <v>13.076460000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.180000</v>
+        <v>983.18</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.638000</v>
+        <v>-91.638000000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>47086.297506</v>
+        <v>47086.297506000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.079527</v>
+        <v>13.079527000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.041000</v>
+        <v>993.04100000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.348000</v>
+        <v>-109.348</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>47097.422238</v>
+        <v>47097.422237999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.082617</v>
+        <v>13.082617000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>47108.490505</v>
+        <v>47108.490505000002</v>
       </c>
       <c r="BE5" s="1">
         <v>13.085692</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.300000</v>
+        <v>-197.3</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>47119.299789</v>
+        <v>47119.299788999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>13.088694</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.780000</v>
+        <v>1106.78</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.711000</v>
+        <v>-314.71100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>47130.456787</v>
+        <v>47130.456787000003</v>
       </c>
       <c r="BO5" s="1">
         <v>13.091794</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.010000</v>
+        <v>-500.01</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>47141.235845</v>
+        <v>47141.235845000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>13.094788</v>
+        <v>13.094787999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.370000</v>
+        <v>1337.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.854000</v>
+        <v>-703.85400000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>47151.993080</v>
+        <v>47151.99308</v>
       </c>
       <c r="BY5" s="1">
         <v>13.097776</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.990000</v>
+        <v>1473.99</v>
       </c>
       <c r="CA5" s="1">
-        <v>-920.476000</v>
+        <v>-920.476</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>47163.297399</v>
+        <v>47163.297399000003</v>
       </c>
       <c r="CD5" s="1">
         <v>13.100916</v>
       </c>
       <c r="CE5" s="1">
-        <v>1833.100000</v>
+        <v>1833.1</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1437.500000</v>
+        <v>-1437.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>46991.007563</v>
+        <v>46991.007562999999</v>
       </c>
       <c r="B6" s="1">
         <v>13.053058</v>
       </c>
       <c r="C6" s="1">
-        <v>899.812000</v>
+        <v>899.81200000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.654000</v>
+        <v>-199.654</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>47001.396302</v>
+        <v>47001.396302000001</v>
       </c>
       <c r="G6" s="1">
-        <v>13.055943</v>
+        <v>13.055942999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>917.997000</v>
+        <v>917.99699999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.277000</v>
+        <v>-169.27699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>47012.234351</v>
+        <v>47012.234350999999</v>
       </c>
       <c r="L6" s="1">
         <v>13.058954</v>
       </c>
       <c r="M6" s="1">
-        <v>941.728000</v>
+        <v>941.72799999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.623000</v>
+        <v>-120.623</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>47022.758467</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.061877</v>
+        <v>13.061877000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.772000</v>
+        <v>948.77200000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.374000</v>
+        <v>-104.374</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>47033.602003</v>
       </c>
       <c r="V6" s="1">
-        <v>13.064889</v>
+        <v>13.064889000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.610000</v>
+        <v>955.61</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.406600</v>
+        <v>-89.406599999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>47044.049270</v>
+        <v>47044.049270000003</v>
       </c>
       <c r="AA6" s="1">
         <v>13.067791</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.925000</v>
+        <v>962.92499999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.583000</v>
+        <v>-77.582999999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>47054.530231</v>
+        <v>47054.530230999997</v>
       </c>
       <c r="AF6" s="1">
         <v>13.070703</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.703000</v>
+        <v>967.70299999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.371400</v>
+        <v>-75.371399999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>47064.975481</v>
+        <v>47064.975481000001</v>
       </c>
       <c r="AK6" s="1">
         <v>13.073604</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.036000</v>
+        <v>975.03599999999994</v>
       </c>
       <c r="AM6" s="1">
-        <v>-80.048000</v>
+        <v>-80.048000000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>47075.618603</v>
+        <v>47075.618603000003</v>
       </c>
       <c r="AP6" s="1">
         <v>13.076561</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.156000</v>
+        <v>983.15599999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.631200</v>
+        <v>-91.631200000000007</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>47086.659548</v>
+        <v>47086.659548000003</v>
       </c>
       <c r="AU6" s="1">
         <v>13.079628</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.049000</v>
+        <v>993.04899999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.347000</v>
+        <v>-109.34699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>47097.858718</v>
+        <v>47097.858718000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.082739</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>47108.784095</v>
+        <v>47108.784095000003</v>
       </c>
       <c r="BE6" s="1">
         <v>13.085773</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.304000</v>
+        <v>-197.304</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>47119.623170</v>
+        <v>47119.623169999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>13.088784</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.725000</v>
+        <v>-314.72500000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>47130.852626</v>
@@ -1704,210 +2120,210 @@
         <v>13.091904</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-499.992000</v>
+        <v>-499.99200000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>47141.647029</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.094902</v>
+        <v>13.094901999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.400000</v>
+        <v>1337.4</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.857000</v>
+        <v>-703.85699999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>47152.440967</v>
+        <v>47152.440967000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>13.097900</v>
+        <v>13.097899999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.980000</v>
+        <v>1473.98</v>
       </c>
       <c r="CA6" s="1">
-        <v>-920.558000</v>
+        <v>-920.55799999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>47163.833080</v>
+        <v>47163.833079999997</v>
       </c>
       <c r="CD6" s="1">
         <v>13.101065</v>
       </c>
       <c r="CE6" s="1">
-        <v>1833.380000</v>
+        <v>1833.38</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1435.880000</v>
+        <v>-1435.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>46991.351291</v>
+        <v>46991.351290999999</v>
       </c>
       <c r="B7" s="1">
         <v>13.053153</v>
       </c>
       <c r="C7" s="1">
-        <v>899.914000</v>
+        <v>899.91399999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.688000</v>
+        <v>-199.68799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>47001.741517</v>
+        <v>47001.741517000002</v>
       </c>
       <c r="G7" s="1">
         <v>13.056039</v>
       </c>
       <c r="H7" s="1">
-        <v>917.970000</v>
+        <v>917.97</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.046000</v>
+        <v>-169.04599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>47012.883615</v>
+        <v>47012.883614999999</v>
       </c>
       <c r="L7" s="1">
         <v>13.059134</v>
       </c>
       <c r="M7" s="1">
-        <v>941.683000</v>
+        <v>941.68299999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.735000</v>
+        <v>-120.735</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>47023.423601</v>
+        <v>47023.423601000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.062062</v>
+        <v>13.062061999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>948.838000</v>
+        <v>948.83799999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.396000</v>
+        <v>-104.396</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>47033.975986</v>
+        <v>47033.975985999998</v>
       </c>
       <c r="V7" s="1">
-        <v>13.064993</v>
+        <v>13.064992999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.660000</v>
+        <v>955.66</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.382500</v>
+        <v>-89.382499999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>47044.398916</v>
+        <v>47044.398915999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.067889</v>
+        <v>13.067888999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.924000</v>
+        <v>962.92399999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.610400</v>
+        <v>-77.610399999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>47054.872439</v>
+        <v>47054.872438999999</v>
       </c>
       <c r="AF7" s="1">
         <v>13.070798</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.792000</v>
+        <v>967.79200000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.357700</v>
+        <v>-75.357699999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>47065.321289</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.073700</v>
+        <v>13.073700000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.042000</v>
+        <v>975.04200000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-80.030100</v>
+        <v>-80.030100000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>47076.040699</v>
+        <v>47076.040698999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.076678</v>
+        <v>13.076677999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.175000</v>
+        <v>983.17499999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.618100</v>
+        <v>-91.618099999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>47087.086604</v>
+        <v>47087.086603999996</v>
       </c>
       <c r="AU7" s="1">
         <v>13.079746</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.055000</v>
+        <v>993.05499999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.376000</v>
+        <v>-109.376</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>47098.142926</v>
@@ -1916,13 +2332,13 @@
         <v>13.082817</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.330000</v>
+        <v>1001.33</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.065000</v>
+        <v>-125.065</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>47109.144687</v>
@@ -1931,58 +2347,58 @@
         <v>13.085874</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.301000</v>
+        <v>-197.30099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>47119.996689</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.088888</v>
+        <v>13.088888000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.682000</v>
+        <v>-314.68200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>47131.277697</v>
+        <v>47131.277696999998</v>
       </c>
       <c r="BO7" s="1">
         <v>13.092022</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-499.989000</v>
+        <v>-499.98899999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>47142.076068</v>
+        <v>47142.076068000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>13.095021</v>
+        <v>13.095020999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.560000</v>
+        <v>1337.56</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.780000</v>
+        <v>-703.78</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>47152.897781</v>
@@ -1991,75 +2407,75 @@
         <v>13.098027</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.820000</v>
+        <v>1473.82</v>
       </c>
       <c r="CA7" s="1">
-        <v>-920.552000</v>
+        <v>-920.55200000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>47164.378183</v>
+        <v>47164.378183000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.101216</v>
+        <v>13.101216000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1832.420000</v>
+        <v>1832.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1437.030000</v>
+        <v>-1437.03</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>46992.003071</v>
+        <v>46992.003070999999</v>
       </c>
       <c r="B8" s="1">
         <v>13.053334</v>
       </c>
       <c r="C8" s="1">
-        <v>899.813000</v>
+        <v>899.81299999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.498000</v>
+        <v>-199.49799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>47002.390782</v>
+        <v>47002.390782000002</v>
       </c>
       <c r="G8" s="1">
-        <v>13.056220</v>
+        <v>13.05622</v>
       </c>
       <c r="H8" s="1">
-        <v>916.873000</v>
+        <v>916.87300000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.415000</v>
+        <v>-169.41499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>47013.269534</v>
+        <v>47013.269533999999</v>
       </c>
       <c r="L8" s="1">
-        <v>13.059242</v>
+        <v>13.059241999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>941.731000</v>
+        <v>941.73099999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.656000</v>
+        <v>-120.65600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>47023.803537</v>
@@ -2068,647 +2484,647 @@
         <v>13.062168</v>
       </c>
       <c r="R8" s="1">
-        <v>948.836000</v>
+        <v>948.83600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.421000</v>
+        <v>-104.42100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>47034.320742</v>
+        <v>47034.320742000004</v>
       </c>
       <c r="V8" s="1">
         <v>13.065089</v>
       </c>
       <c r="W8" s="1">
-        <v>955.577000</v>
+        <v>955.577</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.377800</v>
+        <v>-89.377799999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>47044.747108</v>
+        <v>47044.747108000003</v>
       </c>
       <c r="AA8" s="1">
         <v>13.067985</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.961000</v>
+        <v>962.96100000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.586500</v>
+        <v>-77.586500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>47055.216662</v>
+        <v>47055.216661999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.070894</v>
+        <v>13.070893999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.766000</v>
+        <v>967.76599999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.366600</v>
+        <v>-75.366600000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>47065.747749</v>
+        <v>47065.747749000002</v>
       </c>
       <c r="AK8" s="1">
         <v>13.073819</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.044000</v>
+        <v>975.04399999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-80.040600</v>
+        <v>-80.040599999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>47076.336314</v>
       </c>
       <c r="AP8" s="1">
-        <v>13.076760</v>
+        <v>13.07676</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.181000</v>
+        <v>983.18100000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.625900</v>
+        <v>-91.625900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>47087.392139</v>
+        <v>47087.392139000003</v>
       </c>
       <c r="AU8" s="1">
         <v>13.079831</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.060000</v>
+        <v>993.06</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.372000</v>
+        <v>-109.372</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>47098.502556</v>
+        <v>47098.502555999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.082917</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>47109.505279</v>
+        <v>47109.505278999997</v>
       </c>
       <c r="BE8" s="1">
         <v>13.085974</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.313000</v>
+        <v>-197.31299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>47120.383285</v>
+        <v>47120.383285000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.088995</v>
+        <v>13.088995000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.790000</v>
+        <v>1106.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.711000</v>
+        <v>-314.71100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>47132.094576</v>
+        <v>47132.094576000003</v>
       </c>
       <c r="BO8" s="1">
         <v>13.092248</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.260000</v>
+        <v>1215.26</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-499.961000</v>
+        <v>-499.96100000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>47142.505603</v>
+        <v>47142.505602999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.095140</v>
+        <v>13.095140000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.590000</v>
+        <v>1337.59</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.761000</v>
+        <v>-703.76099999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>47153.346800</v>
+        <v>47153.346799999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.098152</v>
+        <v>13.098152000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.010000</v>
+        <v>1474.01</v>
       </c>
       <c r="CA8" s="1">
-        <v>-920.576000</v>
+        <v>-920.57600000000002</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>47164.917830</v>
+        <v>47164.917829999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.101366</v>
+        <v>13.101366000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1833.650000</v>
+        <v>1833.65</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1436.670000</v>
+        <v>-1436.67</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>46992.377034</v>
+        <v>46992.377033999997</v>
       </c>
       <c r="B9" s="1">
         <v>13.053438</v>
       </c>
       <c r="C9" s="1">
-        <v>899.940000</v>
+        <v>899.94</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.762000</v>
+        <v>-199.762</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>47002.773163</v>
+        <v>47002.773162999998</v>
       </c>
       <c r="G9" s="1">
         <v>13.056326</v>
       </c>
       <c r="H9" s="1">
-        <v>918.236000</v>
+        <v>918.23599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.314000</v>
+        <v>-169.31399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>47013.617724</v>
+        <v>47013.617724000003</v>
       </c>
       <c r="L9" s="1">
         <v>13.059338</v>
       </c>
       <c r="M9" s="1">
-        <v>941.902000</v>
+        <v>941.90200000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.574000</v>
+        <v>-120.574</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>47024.156687</v>
+        <v>47024.156687000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.062266</v>
+        <v>13.062265999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.799000</v>
+        <v>948.79899999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.426000</v>
+        <v>-104.426</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>47034.670914</v>
+        <v>47034.670914000002</v>
       </c>
       <c r="V9" s="1">
-        <v>13.065186</v>
+        <v>13.065186000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.650000</v>
+        <v>955.65</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.378700</v>
+        <v>-89.378699999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>47045.164278</v>
+        <v>47045.164277999997</v>
       </c>
       <c r="AA9" s="1">
         <v>13.068101</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.949000</v>
+        <v>962.94899999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.517300</v>
+        <v>-77.517300000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>47055.637269</v>
+        <v>47055.637268999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>13.071010</v>
+        <v>13.071009999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.739000</v>
+        <v>967.73900000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.377600</v>
+        <v>-75.377600000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>47066.023033</v>
+        <v>47066.023032999998</v>
       </c>
       <c r="AK9" s="1">
         <v>13.073895</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.041000</v>
+        <v>975.04100000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-80.034500</v>
+        <v>-80.034499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>47076.700906</v>
+        <v>47076.700905999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.076861</v>
+        <v>13.076860999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.176000</v>
+        <v>983.17600000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.633200</v>
+        <v>-91.633200000000002</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>47087.754221</v>
+        <v>47087.754221000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.079932</v>
+        <v>13.079931999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.056000</v>
+        <v>993.05600000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.351000</v>
+        <v>-109.351</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>47098.859182</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.083016</v>
+        <v>13.083016000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.054000</v>
+        <v>-125.054</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>47110.226493</v>
+        <v>47110.226493000002</v>
       </c>
       <c r="BE9" s="1">
         <v>13.086174</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.296000</v>
+        <v>-197.29599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>47121.147376</v>
+        <v>47121.147376000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.089208</v>
+        <v>13.089207999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.719000</v>
+        <v>-314.71899999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>47132.509232</v>
+        <v>47132.509231999997</v>
       </c>
       <c r="BO9" s="1">
         <v>13.092364</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-499.976000</v>
+        <v>-499.976</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>47142.914410</v>
+        <v>47142.914409999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>13.095254</v>
+        <v>13.095254000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.620000</v>
+        <v>1337.62</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.634000</v>
+        <v>-703.63400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>47153.805461</v>
+        <v>47153.805461000004</v>
       </c>
       <c r="BY9" s="1">
         <v>13.098279</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.890000</v>
+        <v>1473.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-920.440000</v>
+        <v>-920.44</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>47165.770961</v>
+        <v>47165.770961000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.101603</v>
+        <v>13.101603000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1832.600000</v>
+        <v>1832.6</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1436.920000</v>
+        <v>-1436.92</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>46992.717769</v>
+        <v>46992.717769000003</v>
       </c>
       <c r="B10" s="1">
         <v>13.053533</v>
       </c>
       <c r="C10" s="1">
-        <v>899.613000</v>
+        <v>899.61300000000006</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.493000</v>
+        <v>-199.49299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>47003.117883</v>
+        <v>47003.117882999999</v>
       </c>
       <c r="G10" s="1">
         <v>13.056422</v>
       </c>
       <c r="H10" s="1">
-        <v>917.470000</v>
+        <v>917.47</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.565000</v>
+        <v>-169.565</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>47013.962940</v>
+        <v>47013.962939999998</v>
       </c>
       <c r="L10" s="1">
         <v>13.059434</v>
       </c>
       <c r="M10" s="1">
-        <v>941.653000</v>
+        <v>941.65300000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.626000</v>
+        <v>-120.626</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>47024.742501</v>
+        <v>47024.742501000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.062428</v>
+        <v>13.062428000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.787000</v>
+        <v>948.78700000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.403000</v>
+        <v>-104.40300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>47035.085073</v>
+        <v>47035.085073000002</v>
       </c>
       <c r="V10" s="1">
         <v>13.065301</v>
       </c>
       <c r="W10" s="1">
-        <v>955.647000</v>
+        <v>955.64700000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.406000</v>
+        <v>-89.406000000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>47045.444518</v>
+        <v>47045.444517999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.068179</v>
+        <v>13.068179000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.035000</v>
+        <v>963.03499999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.603600</v>
+        <v>-77.6036</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>47055.913045</v>
+        <v>47055.913045000001</v>
       </c>
       <c r="AF10" s="1">
         <v>13.071087</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.768000</v>
+        <v>967.76800000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.404100</v>
+        <v>-75.4041</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>47066.373177</v>
+        <v>47066.373177000001</v>
       </c>
       <c r="AK10" s="1">
         <v>13.073993</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.046000</v>
+        <v>975.04600000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-80.043900</v>
+        <v>-80.043899999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>47077.061466</v>
+        <v>47077.061465999999</v>
       </c>
       <c r="AP10" s="1">
         <v>13.076962</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.164000</v>
+        <v>983.16399999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.632400</v>
+        <v>-91.632400000000004</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>47088.116333</v>
+        <v>47088.116332999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>13.080032</v>
+        <v>13.080031999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.054000</v>
+        <v>993.05399999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.361000</v>
+        <v>-109.361</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>47099.574877</v>
+        <v>47099.574876999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.083215</v>
+        <v>13.083214999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.052000</v>
+        <v>-125.05200000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>47110.614333</v>
+        <v>47110.614332999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.086282</v>
+        <v>13.086282000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.326000</v>
+        <v>-197.32599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>47121.522352</v>
@@ -2717,210 +3133,210 @@
         <v>13.089312</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.742000</v>
+        <v>-314.74200000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>47132.908513</v>
+        <v>47132.908513000002</v>
       </c>
       <c r="BO10" s="1">
         <v>13.092475</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.004000</v>
+        <v>-500.00400000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>47143.663769</v>
+        <v>47143.663768999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.095462</v>
+        <v>13.095461999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.570000</v>
+        <v>1337.57</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.568000</v>
+        <v>-703.56799999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>47154.563354</v>
+        <v>47154.563353999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.098490</v>
+        <v>13.09849</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.840000</v>
+        <v>1473.84</v>
       </c>
       <c r="CA10" s="1">
-        <v>-920.652000</v>
+        <v>-920.65200000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>47165.993652</v>
+        <v>47165.993651999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.101665</v>
+        <v>13.101665000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1832.460000</v>
+        <v>1832.46</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1437.100000</v>
+        <v>-1437.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>46993.058056</v>
+        <v>46993.058056000002</v>
       </c>
       <c r="B11" s="1">
-        <v>13.053627</v>
+        <v>13.053627000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>899.803000</v>
+        <v>899.803</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.605000</v>
+        <v>-199.60499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>47003.461147</v>
+        <v>47003.461147000002</v>
       </c>
       <c r="G11" s="1">
-        <v>13.056517</v>
+        <v>13.056516999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>917.974000</v>
+        <v>917.97400000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.576000</v>
+        <v>-169.57599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>47014.380541</v>
+        <v>47014.380540999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.059550</v>
+        <v>13.05955</v>
       </c>
       <c r="M11" s="1">
-        <v>941.825000</v>
+        <v>941.82500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.773000</v>
+        <v>-120.773</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>47024.851086</v>
+        <v>47024.851086000002</v>
       </c>
       <c r="Q11" s="1">
         <v>13.062459</v>
       </c>
       <c r="R11" s="1">
-        <v>948.782000</v>
+        <v>948.78200000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.406000</v>
+        <v>-104.40600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>47035.374208</v>
+        <v>47035.374208000001</v>
       </c>
       <c r="V11" s="1">
         <v>13.065382</v>
       </c>
       <c r="W11" s="1">
-        <v>955.644000</v>
+        <v>955.64400000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.413300</v>
+        <v>-89.413300000000007</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>47045.793668</v>
+        <v>47045.793667999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.068276</v>
+        <v>13.068275999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.003000</v>
+        <v>963.00300000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.573200</v>
+        <v>-77.5732</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>47056.255468</v>
+        <v>47056.255468000003</v>
       </c>
       <c r="AF11" s="1">
         <v>13.071182</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.764000</v>
+        <v>967.76400000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.396900</v>
+        <v>-75.396900000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>47066.721863</v>
+        <v>47066.721862999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.074089</v>
+        <v>13.074089000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.033000</v>
+        <v>975.03300000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-80.034400</v>
+        <v>-80.034400000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>47077.787608</v>
+        <v>47077.787607999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.077163</v>
+        <v>13.077163000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.189000</v>
+        <v>983.18899999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.622900</v>
+        <v>-91.622900000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>47088.847404</v>
@@ -2929,512 +3345,512 @@
         <v>13.080235</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.068000</v>
+        <v>993.06799999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.362000</v>
+        <v>-109.36199999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>47099.934795</v>
+        <v>47099.934795000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.083315</v>
+        <v>13.083315000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.068000</v>
+        <v>-125.068</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>47110.994268</v>
+        <v>47110.994268000002</v>
       </c>
       <c r="BE11" s="1">
         <v>13.086387</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.060000</v>
+        <v>1040.06</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.305000</v>
+        <v>-197.30500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>47121.897327</v>
+        <v>47121.897326999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.089416</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.678000</v>
+        <v>-314.678</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>47133.633663</v>
+        <v>47133.633663000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>13.092676</v>
+        <v>13.092676000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.008000</v>
+        <v>-500.00799999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>47143.774369</v>
+        <v>47143.774368999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.095493</v>
+        <v>13.095492999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.610000</v>
+        <v>1337.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.421000</v>
+        <v>-703.42100000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>47154.685860</v>
+        <v>47154.685859999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.098524</v>
+        <v>13.098523999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.120000</v>
+        <v>1474.12</v>
       </c>
       <c r="CA11" s="1">
-        <v>-920.520000</v>
+        <v>-920.52</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>47166.512469</v>
+        <v>47166.512469000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.101809</v>
+        <v>13.101808999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1833.880000</v>
+        <v>1833.88</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1436.600000</v>
+        <v>-1436.6</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>46993.484585</v>
+        <v>46993.484584999998</v>
       </c>
       <c r="B12" s="1">
         <v>13.053746</v>
       </c>
       <c r="C12" s="1">
-        <v>899.811000</v>
+        <v>899.81100000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.643000</v>
+        <v>-199.643</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>47003.881753</v>
+        <v>47003.881753000001</v>
       </c>
       <c r="G12" s="1">
-        <v>13.056634</v>
+        <v>13.056634000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>918.052000</v>
+        <v>918.05200000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.498000</v>
+        <v>-169.49799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>47014.673182</v>
+        <v>47014.673181999999</v>
       </c>
       <c r="L12" s="1">
         <v>13.059631</v>
       </c>
       <c r="M12" s="1">
-        <v>941.839000</v>
+        <v>941.83900000000006</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.773000</v>
+        <v>-120.773</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>47025.202266</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.062556</v>
+        <v>13.062556000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.832000</v>
+        <v>948.83199999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.382000</v>
+        <v>-104.38200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>47035.719922</v>
+        <v>47035.719921999997</v>
       </c>
       <c r="V12" s="1">
-        <v>13.065478</v>
+        <v>13.065478000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>955.746000</v>
+        <v>955.74599999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.354200</v>
+        <v>-89.354200000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>47046.143378</v>
+        <v>47046.143378000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.068373</v>
+        <v>13.068372999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.935000</v>
+        <v>962.93499999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.619100</v>
+        <v>-77.619100000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>47056.598516</v>
+        <v>47056.598515999998</v>
       </c>
       <c r="AF12" s="1">
         <v>13.071277</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.766000</v>
+        <v>967.76599999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.375100</v>
+        <v>-75.375100000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>47067.418776</v>
+        <v>47067.418775999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.074283</v>
+        <v>13.074282999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.075000</v>
+        <v>975.07500000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-80.030400</v>
+        <v>-80.0304</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>47078.162616</v>
+        <v>47078.162616000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.077267</v>
+        <v>13.077267000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.165000</v>
+        <v>983.16499999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.647300</v>
+        <v>-91.647300000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>47089.209978</v>
+        <v>47089.209977999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.080336</v>
+        <v>13.080336000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.064000</v>
+        <v>993.06399999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.358000</v>
+        <v>-109.358</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>47100.293610</v>
+        <v>47100.293610000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.083415</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.048000</v>
+        <v>-125.048</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>47111.677755</v>
+        <v>47111.677754999997</v>
       </c>
       <c r="BE12" s="1">
         <v>13.086577</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.315000</v>
+        <v>-197.315</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>47122.621027</v>
+        <v>47122.621027000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.089617</v>
+        <v>13.089617000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.733000</v>
+        <v>-314.733</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>47133.743279</v>
+        <v>47133.743279000002</v>
       </c>
       <c r="BO12" s="1">
         <v>13.092706</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-499.955000</v>
+        <v>-499.95499999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>47144.215810</v>
+        <v>47144.215810000002</v>
       </c>
       <c r="BT12" s="1">
         <v>13.095616</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.590000</v>
+        <v>1337.59</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.314000</v>
+        <v>-703.31399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>47155.110931</v>
+        <v>47155.110931000003</v>
       </c>
       <c r="BY12" s="1">
         <v>13.098642</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.960000</v>
+        <v>1473.96</v>
       </c>
       <c r="CA12" s="1">
-        <v>-920.549000</v>
+        <v>-920.54899999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>47167.031813</v>
+        <v>47167.031813000001</v>
       </c>
       <c r="CD12" s="1">
         <v>13.101953</v>
       </c>
       <c r="CE12" s="1">
-        <v>1833.740000</v>
+        <v>1833.74</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1437.180000</v>
+        <v>-1437.18</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>46993.750950</v>
+        <v>46993.750950000001</v>
       </c>
       <c r="B13" s="1">
-        <v>13.053820</v>
+        <v>13.05382</v>
       </c>
       <c r="C13" s="1">
-        <v>899.673000</v>
+        <v>899.673</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.612000</v>
+        <v>-199.61199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>47004.176347</v>
+        <v>47004.176347000001</v>
       </c>
       <c r="G13" s="1">
         <v>13.056716</v>
       </c>
       <c r="H13" s="1">
-        <v>917.739000</v>
+        <v>917.73900000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.390000</v>
+        <v>-169.39</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>47015.017900</v>
+        <v>47015.017899999999</v>
       </c>
       <c r="L13" s="1">
-        <v>13.059727</v>
+        <v>13.059727000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.863000</v>
+        <v>941.86300000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.629000</v>
+        <v>-120.629</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>47025.550485</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.062653</v>
+        <v>13.062652999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>948.833000</v>
+        <v>948.83299999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.412000</v>
+        <v>-104.41200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>47036.063153</v>
+        <v>47036.063153000003</v>
       </c>
       <c r="V13" s="1">
-        <v>13.065573</v>
+        <v>13.065573000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.641000</v>
+        <v>955.64099999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.423700</v>
+        <v>-89.423699999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>47046.836753</v>
+        <v>47046.836753000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.068566</v>
+        <v>13.068566000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.958000</v>
+        <v>962.95799999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.636100</v>
+        <v>-77.636099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>47057.285475</v>
+        <v>47057.285474999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.071468</v>
+        <v>13.071467999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.731000</v>
+        <v>967.73099999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.377700</v>
+        <v>-75.377700000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>47067.765447</v>
+        <v>47067.765446999998</v>
       </c>
       <c r="AK13" s="1">
         <v>13.074379</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.042000</v>
+        <v>975.04200000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-80.035200</v>
+        <v>-80.035200000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>47078.553566</v>
+        <v>47078.553566000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.077376</v>
+        <v>13.077375999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.154000</v>
+        <v>983.154</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.631400</v>
+        <v>-91.631399999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>47089.579994</v>
@@ -3443,180 +3859,180 @@
         <v>13.080439</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.049000</v>
+        <v>993.04899999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.377000</v>
+        <v>-109.377</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>47100.965658</v>
+        <v>47100.965658000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13.083602</v>
+        <v>13.083602000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>47112.078059</v>
+        <v>47112.078058999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.086688</v>
+        <v>13.086688000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.060000</v>
+        <v>1040.06</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.321000</v>
+        <v>-197.321</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>47123.047052</v>
+        <v>47123.047052000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.089735</v>
+        <v>13.089734999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.695000</v>
+        <v>-314.69499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>47134.145534</v>
+        <v>47134.145534000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.092818</v>
+        <v>13.092817999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.023000</v>
+        <v>-500.02300000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>47144.623520</v>
+        <v>47144.623520000001</v>
       </c>
       <c r="BT13" s="1">
         <v>13.095729</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.490000</v>
+        <v>1337.49</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.325000</v>
+        <v>-703.32500000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>47155.533026</v>
+        <v>47155.533025999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.098759</v>
+        <v>13.098758999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.970000</v>
+        <v>1473.97</v>
       </c>
       <c r="CA13" s="1">
-        <v>-920.626000</v>
+        <v>-920.62599999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>47167.585810</v>
+        <v>47167.585809999997</v>
       </c>
       <c r="CD13" s="1">
         <v>13.102107</v>
       </c>
       <c r="CE13" s="1">
-        <v>1832.960000</v>
+        <v>1832.96</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1437.340000</v>
+        <v>-1437.34</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>46994.096648</v>
+        <v>46994.096647999999</v>
       </c>
       <c r="B14" s="1">
-        <v>13.053916</v>
+        <v>13.053915999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>899.656000</v>
+        <v>899.65599999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.737000</v>
+        <v>-199.73699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>47004.518586</v>
+        <v>47004.518585999998</v>
       </c>
       <c r="G14" s="1">
         <v>13.056811</v>
       </c>
       <c r="H14" s="1">
-        <v>917.611000</v>
+        <v>917.61099999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.578000</v>
+        <v>-169.578</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>47015.364603</v>
+        <v>47015.364603000002</v>
       </c>
       <c r="L14" s="1">
-        <v>13.059824</v>
+        <v>13.059824000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.742000</v>
+        <v>941.74199999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.735000</v>
+        <v>-120.735</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>47026.245341</v>
+        <v>47026.245341000002</v>
       </c>
       <c r="Q14" s="1">
         <v>13.062846</v>
       </c>
       <c r="R14" s="1">
-        <v>948.849000</v>
+        <v>948.84900000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.450000</v>
+        <v>-104.45</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>47036.748624</v>
@@ -3625,677 +4041,677 @@
         <v>13.065764</v>
       </c>
       <c r="W14" s="1">
-        <v>955.587000</v>
+        <v>955.58699999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.332900</v>
+        <v>-89.332899999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>47047.188913</v>
+        <v>47047.188912999998</v>
       </c>
       <c r="AA14" s="1">
         <v>13.068664</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.941000</v>
+        <v>962.94100000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.645000</v>
+        <v>-77.644999999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>47057.658963</v>
+        <v>47057.658963000002</v>
       </c>
       <c r="AF14" s="1">
         <v>13.071572</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.767000</v>
+        <v>967.76700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.370500</v>
+        <v>-75.370500000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>47068.115654</v>
+        <v>47068.115654000001</v>
       </c>
       <c r="AK14" s="1">
         <v>13.074477</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.036000</v>
+        <v>975.03599999999994</v>
       </c>
       <c r="AM14" s="1">
-        <v>-80.044000</v>
+        <v>-80.043999999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>47079.223032</v>
+        <v>47079.223032000002</v>
       </c>
       <c r="AP14" s="1">
         <v>13.077562</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.169000</v>
+        <v>983.16899999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.625100</v>
+        <v>-91.625100000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>47090.315097</v>
+        <v>47090.315096999999</v>
       </c>
       <c r="AU14" s="1">
         <v>13.080643</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.076000</v>
+        <v>993.07600000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.358000</v>
+        <v>-109.358</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>47101.366954</v>
+        <v>47101.366953999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.083713</v>
+        <v>13.083712999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.320000</v>
+        <v>1001.32</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.030000</v>
+        <v>-125.03</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>47112.469372</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.086797</v>
+        <v>13.086797000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.321000</v>
+        <v>-197.321</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>47123.447324</v>
+        <v>47123.447324000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>13.089846</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.711000</v>
+        <v>-314.71100000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>47134.545805</v>
+        <v>47134.545805000002</v>
       </c>
       <c r="BO14" s="1">
         <v>13.092929</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-499.986000</v>
+        <v>-499.98599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>47145.054577</v>
+        <v>47145.054577000003</v>
       </c>
       <c r="BT14" s="1">
         <v>13.095848</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.430000</v>
+        <v>1337.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.126000</v>
+        <v>-703.12599999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>47155.975991</v>
+        <v>47155.975990999999</v>
       </c>
       <c r="BY14" s="1">
         <v>13.098882</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.970000</v>
+        <v>1473.97</v>
       </c>
       <c r="CA14" s="1">
-        <v>-920.530000</v>
+        <v>-920.53</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>47168.112562</v>
+        <v>47168.112562000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>13.102253</v>
+        <v>13.102252999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1833.780000</v>
+        <v>1833.78</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1436.430000</v>
+        <v>-1436.43</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>46994.434422</v>
+        <v>46994.434421999998</v>
       </c>
       <c r="B15" s="1">
-        <v>13.054010</v>
+        <v>13.05401</v>
       </c>
       <c r="C15" s="1">
-        <v>899.798000</v>
+        <v>899.798</v>
       </c>
       <c r="D15" s="1">
-        <v>-199.642000</v>
+        <v>-199.642</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>47004.863802</v>
       </c>
       <c r="G15" s="1">
-        <v>13.056907</v>
+        <v>13.056907000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.701000</v>
+        <v>917.70100000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.387000</v>
+        <v>-169.387</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>47016.056027</v>
+        <v>47016.056026999999</v>
       </c>
       <c r="L15" s="1">
-        <v>13.060016</v>
+        <v>13.060015999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>941.750000</v>
+        <v>941.75</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.742000</v>
+        <v>-120.742</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>47026.595054</v>
+        <v>47026.595053999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.062943</v>
+        <v>13.062943000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.794000</v>
+        <v>948.79399999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.434000</v>
+        <v>-104.434</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>47037.094370</v>
+        <v>47037.094369999999</v>
       </c>
       <c r="V15" s="1">
-        <v>13.065860</v>
+        <v>13.065860000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>955.595000</v>
+        <v>955.59500000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.378700</v>
+        <v>-89.378699999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>47047.534651</v>
+        <v>47047.534651000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>13.068760</v>
+        <v>13.068759999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.882000</v>
+        <v>962.88199999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.598000</v>
+        <v>-77.597999999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>47058.293346</v>
+        <v>47058.293345999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.071748</v>
+        <v>13.071747999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.745000</v>
+        <v>967.745</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.347000</v>
+        <v>-75.346999999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>47068.771861</v>
+        <v>47068.771861000001</v>
       </c>
       <c r="AK15" s="1">
         <v>13.074659</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.044000</v>
+        <v>975.04399999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-80.036900</v>
+        <v>-80.036900000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>47079.634214</v>
+        <v>47079.634213999998</v>
       </c>
       <c r="AP15" s="1">
         <v>13.077676</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.152000</v>
+        <v>983.15200000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.618100</v>
+        <v>-91.618099999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>47090.671224</v>
+        <v>47090.671223999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.080742</v>
+        <v>13.080742000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.067000</v>
+        <v>993.06700000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.334000</v>
+        <v>-109.334</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>47101.757769</v>
+        <v>47101.757769000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>13.083822</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.057000</v>
+        <v>-125.057</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>47112.832474</v>
+        <v>47112.832474000003</v>
       </c>
       <c r="BE15" s="1">
         <v>13.086898</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.284000</v>
+        <v>-197.28399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>47124.062860</v>
+        <v>47124.062859999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.090017</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.724000</v>
+        <v>-314.72399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>47134.973389</v>
+        <v>47134.973388999999</v>
       </c>
       <c r="BO15" s="1">
         <v>13.093048</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-499.999000</v>
+        <v>-499.99900000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>47145.484080</v>
+        <v>47145.484080000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.095968</v>
+        <v>13.095967999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.290000</v>
+        <v>1337.29</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.194000</v>
+        <v>-703.19399999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>47156.397058</v>
+        <v>47156.397058000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.098999</v>
+        <v>13.098998999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.010000</v>
+        <v>1474.01</v>
       </c>
       <c r="CA15" s="1">
-        <v>-920.537000</v>
+        <v>-920.53700000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>47168.632404</v>
+        <v>47168.632404000004</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.102398</v>
+        <v>13.102398000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.340000</v>
+        <v>1832.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1436.240000</v>
+        <v>-1436.24</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>46995.116454</v>
+        <v>46995.116454000003</v>
       </c>
       <c r="B16" s="1">
-        <v>13.054199</v>
+        <v>13.054199000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>899.761000</v>
+        <v>899.76099999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.627000</v>
+        <v>-199.62700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>47005.551290</v>
+        <v>47005.551290000003</v>
       </c>
       <c r="G16" s="1">
         <v>13.057098</v>
       </c>
       <c r="H16" s="1">
-        <v>917.865000</v>
+        <v>917.86500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.075000</v>
+        <v>-169.07499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>47016.398796</v>
+        <v>47016.398796000001</v>
       </c>
       <c r="L16" s="1">
-        <v>13.060111</v>
+        <v>13.060110999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.779000</v>
+        <v>941.779</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.743000</v>
+        <v>-120.74299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>47026.945197</v>
+        <v>47026.945197000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.063040</v>
+        <v>13.063040000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.808000</v>
+        <v>948.80799999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.425000</v>
+        <v>-104.425</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>47037.436605</v>
+        <v>47037.436605000003</v>
       </c>
       <c r="V16" s="1">
-        <v>13.065955</v>
+        <v>13.065955000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>955.694000</v>
+        <v>955.69399999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.376600</v>
+        <v>-89.376599999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>47048.200288</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.068945</v>
+        <v>13.068944999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.958000</v>
+        <v>962.95799999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.614100</v>
+        <v>-77.614099999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>47058.673779</v>
+        <v>47058.673778999997</v>
       </c>
       <c r="AF16" s="1">
         <v>13.071854</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.736000</v>
+        <v>967.73599999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.382700</v>
+        <v>-75.3827</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>47069.161188</v>
+        <v>47069.161187999998</v>
       </c>
       <c r="AK16" s="1">
         <v>13.074767</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.013000</v>
+        <v>975.01300000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-80.026700</v>
+        <v>-80.026700000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>47080.018120</v>
+        <v>47080.018120000001</v>
       </c>
       <c r="AP16" s="1">
         <v>13.077783</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.156000</v>
+        <v>983.15599999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.612300</v>
+        <v>-91.612300000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>47091.033799</v>
+        <v>47091.033798999997</v>
       </c>
       <c r="AU16" s="1">
         <v>13.080843</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.072000</v>
+        <v>993.072</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.346000</v>
+        <v>-109.346</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>47102.113897</v>
+        <v>47102.113897000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>13.083921</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.350000</v>
+        <v>1001.35</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.062000</v>
+        <v>-125.062</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>47113.267930</v>
+        <v>47113.267930000002</v>
       </c>
       <c r="BE16" s="1">
         <v>13.087019</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.290000</v>
+        <v>-197.29</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>47124.226572</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.090063</v>
+        <v>13.090063000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.703000</v>
+        <v>-314.70299999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>47135.360732</v>
+        <v>47135.360732000001</v>
       </c>
       <c r="BO16" s="1">
         <v>13.093156</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.047000</v>
+        <v>-500.04700000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>47145.897470</v>
+        <v>47145.897470000004</v>
       </c>
       <c r="BT16" s="1">
         <v>13.096083</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.190000</v>
+        <v>1337.19</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.186000</v>
+        <v>-703.18600000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>47156.821633</v>
@@ -4304,75 +4720,75 @@
         <v>13.099117</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.090000</v>
+        <v>1474.09</v>
       </c>
       <c r="CA16" s="1">
-        <v>-920.548000</v>
+        <v>-920.548</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>47169.171025</v>
+        <v>47169.171025000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>13.102548</v>
+        <v>13.102548000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1833.700000</v>
+        <v>1833.7</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1437.480000</v>
+        <v>-1437.48</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>46995.460151</v>
+        <v>46995.460150999999</v>
       </c>
       <c r="B17" s="1">
-        <v>13.054294</v>
+        <v>13.054294000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>899.675000</v>
+        <v>899.67499999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-199.603000</v>
+        <v>-199.60300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>47005.897502</v>
       </c>
       <c r="G17" s="1">
-        <v>13.057194</v>
+        <v>13.057194000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>918.081000</v>
+        <v>918.08100000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.258000</v>
+        <v>-169.25800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>47016.747945</v>
+        <v>47016.747945000003</v>
       </c>
       <c r="L17" s="1">
-        <v>13.060208</v>
+        <v>13.060207999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.769000</v>
+        <v>941.76900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.595000</v>
+        <v>-120.595</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>47027.600412</v>
@@ -4381,88 +4797,88 @@
         <v>13.063222</v>
       </c>
       <c r="R17" s="1">
-        <v>948.815000</v>
+        <v>948.81500000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.432000</v>
+        <v>-104.432</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>47038.097245</v>
+        <v>47038.097244999997</v>
       </c>
       <c r="V17" s="1">
         <v>13.066138</v>
       </c>
       <c r="W17" s="1">
-        <v>955.690000</v>
+        <v>955.69</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.374500</v>
+        <v>-89.374499999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>47048.581679</v>
+        <v>47048.581679000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.069050</v>
+        <v>13.069050000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.009000</v>
+        <v>963.00900000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.630500</v>
+        <v>-77.630499999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>47059.018994</v>
+        <v>47059.018993999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.071950</v>
+        <v>13.071949999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.739000</v>
+        <v>967.73900000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.364600</v>
+        <v>-75.364599999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>47069.511364</v>
+        <v>47069.511363999998</v>
       </c>
       <c r="AK17" s="1">
         <v>13.074864</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.031000</v>
+        <v>975.03099999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-80.049900</v>
+        <v>-80.049899999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>47080.377717</v>
+        <v>47080.377717000003</v>
       </c>
       <c r="AP17" s="1">
         <v>13.077883</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.179000</v>
+        <v>983.17899999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.644400</v>
+        <v>-91.644400000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>47091.452888</v>
@@ -4471,225 +4887,225 @@
         <v>13.080959</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.064000</v>
+        <v>993.06399999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.365000</v>
+        <v>-109.36499999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>47102.528553</v>
+        <v>47102.528552999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.084036</v>
+        <v>13.084035999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.029000</v>
+        <v>-125.029</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>47113.554122</v>
+        <v>47113.554122000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>13.087098</v>
+        <v>13.087097999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.322000</v>
+        <v>-197.322</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>47124.601030</v>
+        <v>47124.601029999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.090167</v>
+        <v>13.090166999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.780000</v>
+        <v>1106.78</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.730000</v>
+        <v>-314.73</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>47135.780845</v>
+        <v>47135.780845000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>13.093272</v>
+        <v>13.093272000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.043000</v>
+        <v>-500.04300000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>47146.328798</v>
+        <v>47146.328798000002</v>
       </c>
       <c r="BT17" s="1">
         <v>13.096202</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.130000</v>
+        <v>1337.13</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.278000</v>
+        <v>-703.27800000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>47157.269552</v>
+        <v>47157.269551999998</v>
       </c>
       <c r="BY17" s="1">
         <v>13.099242</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.050000</v>
+        <v>1474.05</v>
       </c>
       <c r="CA17" s="1">
-        <v>-920.625000</v>
+        <v>-920.625</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>47169.710210</v>
+        <v>47169.710209999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.102697</v>
+        <v>13.102696999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1832.850000</v>
+        <v>1832.85</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1435.660000</v>
+        <v>-1435.66</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>46995.803878</v>
+        <v>46995.803877999999</v>
       </c>
       <c r="B18" s="1">
-        <v>13.054390</v>
+        <v>13.05439</v>
       </c>
       <c r="C18" s="1">
-        <v>899.677000</v>
+        <v>899.67700000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.800000</v>
+        <v>-199.8</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>47006.242183</v>
+        <v>47006.242183000002</v>
       </c>
       <c r="G18" s="1">
-        <v>13.057289</v>
+        <v>13.057289000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>917.657000</v>
+        <v>917.65700000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.218000</v>
+        <v>-169.21799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>47017.404187</v>
       </c>
       <c r="L18" s="1">
-        <v>13.060390</v>
+        <v>13.06039</v>
       </c>
       <c r="M18" s="1">
-        <v>941.894000</v>
+        <v>941.89400000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.820000</v>
+        <v>-120.82</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>47027.988282</v>
+        <v>47027.988281999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.063330</v>
+        <v>13.063330000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.820000</v>
+        <v>948.82</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.449000</v>
+        <v>-104.449</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>47038.472252</v>
       </c>
       <c r="V18" s="1">
-        <v>13.066242</v>
+        <v>13.066242000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>955.653000</v>
+        <v>955.65300000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.369300</v>
+        <v>-89.369299999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>47048.928879</v>
+        <v>47048.928878999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.069147</v>
+        <v>13.069146999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.864000</v>
+        <v>962.86400000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.646200</v>
+        <v>-77.646199999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>47059.362761</v>
+        <v>47059.362760999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>13.072045</v>
+        <v>13.072044999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.779000</v>
+        <v>967.779</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.327900</v>
+        <v>-75.3279</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>47069.860579</v>
@@ -4698,73 +5114,73 @@
         <v>13.074961</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.036000</v>
+        <v>975.03599999999994</v>
       </c>
       <c r="AM18" s="1">
-        <v>-80.022800</v>
+        <v>-80.022800000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>47080.800806</v>
+        <v>47080.800805999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.078000</v>
+        <v>13.077999999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.191000</v>
+        <v>983.19100000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.649000</v>
+        <v>-91.649000000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>47091.764870</v>
+        <v>47091.764869999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.081046</v>
+        <v>13.081046000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.054000</v>
+        <v>993.05399999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.360000</v>
+        <v>-109.36</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>47102.832601</v>
+        <v>47102.832601000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.084120</v>
+        <v>13.08412</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.068000</v>
+        <v>-125.068</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>47113.913755</v>
+        <v>47113.913755000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>13.087198</v>
+        <v>13.087198000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.305000</v>
+        <v>-197.30500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>47124.977024</v>
@@ -4773,285 +5189,285 @@
         <v>13.090271</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.725000</v>
+        <v>-314.72500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>47136.177180</v>
+        <v>47136.177179999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.093383</v>
+        <v>13.093382999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.033000</v>
+        <v>-500.03300000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>47146.755821</v>
+        <v>47146.755820999999</v>
       </c>
       <c r="BT18" s="1">
         <v>13.096321</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.990000</v>
+        <v>1336.99</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.332000</v>
+        <v>-703.33199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>47157.700542</v>
+        <v>47157.700541999999</v>
       </c>
       <c r="BY18" s="1">
         <v>13.099361</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.980000</v>
+        <v>1473.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-920.534000</v>
+        <v>-920.53399999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>47170.250350</v>
+        <v>47170.250350000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.102847</v>
+        <v>13.102847000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1832.840000</v>
+        <v>1832.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1437.440000</v>
+        <v>-1437.44</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>46996.460695</v>
+        <v>46996.460695000002</v>
       </c>
       <c r="B19" s="1">
         <v>13.054572</v>
       </c>
       <c r="C19" s="1">
-        <v>899.818000</v>
+        <v>899.81799999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.634000</v>
+        <v>-199.63399999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>47006.912278</v>
+        <v>47006.912278000003</v>
       </c>
       <c r="G19" s="1">
-        <v>13.057476</v>
+        <v>13.057475999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.888000</v>
+        <v>917.88800000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.895000</v>
+        <v>-168.89500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>47017.784585</v>
+        <v>47017.784585000001</v>
       </c>
       <c r="L19" s="1">
-        <v>13.060496</v>
+        <v>13.060496000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>941.909000</v>
+        <v>941.90899999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.667000</v>
+        <v>-120.667</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>47028.336474</v>
+        <v>47028.336474000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.063427</v>
+        <v>13.063427000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.808000</v>
+        <v>948.80799999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.477000</v>
+        <v>-104.477</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>47038.821931</v>
+        <v>47038.821930999999</v>
       </c>
       <c r="V19" s="1">
-        <v>13.066339</v>
+        <v>13.066338999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>955.618000</v>
+        <v>955.61800000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.307700</v>
+        <v>-89.307699999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>47049.281070</v>
+        <v>47049.281069999997</v>
       </c>
       <c r="AA19" s="1">
         <v>13.069245</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.894000</v>
+        <v>962.89400000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.576800</v>
+        <v>-77.576800000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>47059.782336</v>
+        <v>47059.782335999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>13.072162</v>
+        <v>13.072162000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.759000</v>
+        <v>967.75900000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.370800</v>
+        <v>-75.370800000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>47070.287602</v>
+        <v>47070.287601999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.075080</v>
+        <v>13.07508</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.040000</v>
+        <v>975.04</v>
       </c>
       <c r="AM19" s="1">
-        <v>-80.053600</v>
+        <v>-80.053600000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>47081.098901</v>
+        <v>47081.098900999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.078083</v>
+        <v>13.078082999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.182000</v>
+        <v>983.18200000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.626800</v>
+        <v>-91.626800000000003</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>47092.127976</v>
+        <v>47092.127976000003</v>
       </c>
       <c r="AU19" s="1">
         <v>13.081147</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.071000</v>
+        <v>993.07100000000003</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.352000</v>
+        <v>-109.352</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>47103.190711</v>
+        <v>47103.190711000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.084220</v>
+        <v>13.08422</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.047000</v>
+        <v>-125.047</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>47114.277290</v>
+        <v>47114.277289999998</v>
       </c>
       <c r="BE19" s="1">
         <v>13.087299</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.305000</v>
+        <v>-197.30500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>47125.730910</v>
+        <v>47125.730909999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.090481</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.790000</v>
+        <v>1106.79</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.710000</v>
+        <v>-314.70999999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>47136.599243</v>
+        <v>47136.599242999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.093500</v>
+        <v>13.093500000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.018000</v>
+        <v>-500.01799999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>47147.164029</v>
@@ -5060,542 +5476,542 @@
         <v>13.096434</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.970000</v>
+        <v>1336.97</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.477000</v>
+        <v>-703.47699999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>47158.121181</v>
+        <v>47158.121181000002</v>
       </c>
       <c r="BY19" s="1">
         <v>13.099478</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.910000</v>
+        <v>1473.91</v>
       </c>
       <c r="CA19" s="1">
-        <v>-920.492000</v>
+        <v>-920.49199999999996</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>47170.789965</v>
+        <v>47170.789965000004</v>
       </c>
       <c r="CD19" s="1">
         <v>13.102997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1833.560000</v>
+        <v>1833.56</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1435.860000</v>
+        <v>-1435.86</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>46996.829107</v>
+        <v>46996.829106999998</v>
       </c>
       <c r="B20" s="1">
         <v>13.054675</v>
       </c>
       <c r="C20" s="1">
-        <v>899.710000</v>
+        <v>899.71</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.527000</v>
+        <v>-199.52699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>47007.274358</v>
+        <v>47007.274358000002</v>
       </c>
       <c r="G20" s="1">
-        <v>13.057576</v>
+        <v>13.057575999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>918.900000</v>
+        <v>918.9</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.642000</v>
+        <v>-169.642</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>47018.130295</v>
+        <v>47018.130295000003</v>
       </c>
       <c r="L20" s="1">
         <v>13.060592</v>
       </c>
       <c r="M20" s="1">
-        <v>941.754000</v>
+        <v>941.75400000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.681000</v>
+        <v>-120.681</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>47028.688137</v>
+        <v>47028.688136999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.063524</v>
+        <v>13.063523999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.830000</v>
+        <v>948.83</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.484000</v>
+        <v>-104.48399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>47039.163671</v>
+        <v>47039.163671000002</v>
       </c>
       <c r="V20" s="1">
-        <v>13.066434</v>
+        <v>13.066433999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>955.569000</v>
+        <v>955.56899999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.322800</v>
+        <v>-89.322800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>47049.708591</v>
+        <v>47049.708591000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.069363</v>
+        <v>13.069362999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.939000</v>
+        <v>962.93899999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.544200</v>
+        <v>-77.544200000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>47060.061602</v>
+        <v>47060.061602000002</v>
       </c>
       <c r="AF20" s="1">
         <v>13.072239</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.751000</v>
+        <v>967.75099999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.350600</v>
+        <v>-75.3506</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>47070.568833</v>
+        <v>47070.568832999998</v>
       </c>
       <c r="AK20" s="1">
         <v>13.075158</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.029000</v>
+        <v>975.029</v>
       </c>
       <c r="AM20" s="1">
-        <v>-80.049300</v>
+        <v>-80.049300000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>47081.459529</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.078183</v>
+        <v>13.078182999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.189000</v>
+        <v>983.18899999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.637900</v>
+        <v>-91.637900000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>47092.493493</v>
+        <v>47092.493493000002</v>
       </c>
       <c r="AU20" s="1">
         <v>13.081248</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.045000</v>
+        <v>993.04499999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.367000</v>
+        <v>-109.367</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>47103.551168</v>
+        <v>47103.551167999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.084320</v>
+        <v>13.08432</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.360000</v>
+        <v>1001.36</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.056000</v>
+        <v>-125.056</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>47115.000157</v>
+        <v>47115.000157000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.087500</v>
+        <v>13.0875</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.040000</v>
+        <v>1040.04</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.290000</v>
+        <v>-197.29</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>47126.101914</v>
+        <v>47126.101913999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.090584</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.800000</v>
+        <v>1106.8</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.737000</v>
+        <v>-314.73700000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>47136.996574</v>
+        <v>47136.996573999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.093610</v>
+        <v>13.09361</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-499.996000</v>
+        <v>-499.99599999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>47147.597306</v>
+        <v>47147.597306000003</v>
       </c>
       <c r="BT20" s="1">
         <v>13.096555</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.940000</v>
+        <v>1336.94</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.620000</v>
+        <v>-703.62</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>47158.851261</v>
+        <v>47158.851261000003</v>
       </c>
       <c r="BY20" s="1">
         <v>13.099681</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.980000</v>
+        <v>1473.98</v>
       </c>
       <c r="CA20" s="1">
-        <v>-920.599000</v>
+        <v>-920.59900000000005</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>47171.631180</v>
+        <v>47171.631179999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.103231</v>
+        <v>13.103230999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1833.500000</v>
+        <v>1833.5</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1437.270000</v>
+        <v>-1437.27</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>46997.172868</v>
+        <v>46997.172868000001</v>
       </c>
       <c r="B21" s="1">
-        <v>13.054770</v>
+        <v>13.05477</v>
       </c>
       <c r="C21" s="1">
-        <v>899.754000</v>
+        <v>899.75400000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.549000</v>
+        <v>-199.54900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>47007.664746</v>
+        <v>47007.664746000002</v>
       </c>
       <c r="G21" s="1">
-        <v>13.057685</v>
+        <v>13.057684999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>917.746000</v>
+        <v>917.74599999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.579000</v>
+        <v>-169.57900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>47018.477030</v>
+        <v>47018.477030000002</v>
       </c>
       <c r="L21" s="1">
-        <v>13.060688</v>
+        <v>13.060688000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.757000</v>
+        <v>941.75699999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.704000</v>
+        <v>-120.70399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>47029.106265</v>
+        <v>47029.106265000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.063641</v>
+        <v>13.063641000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>948.804000</v>
+        <v>948.80399999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.427000</v>
+        <v>-104.42700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>47039.596653</v>
+        <v>47039.596653000001</v>
       </c>
       <c r="V21" s="1">
-        <v>13.066555</v>
+        <v>13.066554999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.610000</v>
+        <v>955.61</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.399700</v>
+        <v>-89.399699999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>47049.986881</v>
+        <v>47049.986880999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.069441</v>
+        <v>13.069440999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.954000</v>
+        <v>962.95399999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.631600</v>
+        <v>-77.631600000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>47060.408319</v>
+        <v>47060.408319000002</v>
       </c>
       <c r="AF21" s="1">
         <v>13.072336</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.754000</v>
+        <v>967.75400000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.347900</v>
+        <v>-75.347899999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>47070.914081</v>
+        <v>47070.914081000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.075254</v>
+        <v>13.075253999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.033000</v>
+        <v>975.03300000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-80.028700</v>
+        <v>-80.028700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>47081.820579</v>
+        <v>47081.820578999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>13.078283</v>
+        <v>13.078283000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.161000</v>
+        <v>983.16099999999994</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.620400</v>
+        <v>-91.620400000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>47093.221157</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.081450</v>
+        <v>13.08145</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.050000</v>
+        <v>993.05</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.369000</v>
+        <v>-109.369</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>47104.271494</v>
+        <v>47104.271494000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.084520</v>
+        <v>13.084519999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.330000</v>
+        <v>1001.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.028000</v>
+        <v>-125.02800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>47115.386875</v>
+        <v>47115.386874999997</v>
       </c>
       <c r="BE21" s="1">
         <v>13.087607</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.060000</v>
+        <v>1040.06</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.310000</v>
+        <v>-197.31</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>47126.480360</v>
+        <v>47126.480360000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.090689</v>
+        <v>13.090688999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.780000</v>
+        <v>1106.78</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.732000</v>
+        <v>-314.73200000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>47137.419625</v>
+        <v>47137.419625000002</v>
       </c>
       <c r="BO21" s="1">
         <v>13.093728</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.033000</v>
+        <v>-500.03300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>47148.331115</v>
+        <v>47148.331115000001</v>
       </c>
       <c r="BT21" s="1">
         <v>13.096759</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.020000</v>
+        <v>1337.02</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.662000</v>
+        <v>-703.66200000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>47158.968849</v>
+        <v>47158.968848999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.099714</v>
+        <v>13.099714000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.790000</v>
+        <v>1473.79</v>
       </c>
       <c r="CA21" s="1">
-        <v>-920.618000</v>
+        <v>-920.61800000000005</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>47171.868766</v>
@@ -5604,619 +6020,619 @@
         <v>13.103297</v>
       </c>
       <c r="CE21" s="1">
-        <v>1833.250000</v>
+        <v>1833.25</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1437.040000</v>
+        <v>-1437.04</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>46997.513588</v>
+        <v>46997.513588000002</v>
       </c>
       <c r="B22" s="1">
-        <v>13.054865</v>
+        <v>13.054864999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>899.786000</v>
+        <v>899.78599999999994</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.708000</v>
+        <v>-199.708</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>47008.266852</v>
+        <v>47008.266852000001</v>
       </c>
       <c r="G22" s="1">
         <v>13.057852</v>
       </c>
       <c r="H22" s="1">
-        <v>917.533000</v>
+        <v>917.53300000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.581000</v>
+        <v>-169.58099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>47018.899126</v>
+        <v>47018.899125999997</v>
       </c>
       <c r="L22" s="1">
         <v>13.060805</v>
       </c>
       <c r="M22" s="1">
-        <v>941.700000</v>
+        <v>941.7</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.609000</v>
+        <v>-120.60899999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>47029.383032</v>
+        <v>47029.383031999998</v>
       </c>
       <c r="Q22" s="1">
         <v>13.063718</v>
       </c>
       <c r="R22" s="1">
-        <v>948.801000</v>
+        <v>948.80100000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.429000</v>
+        <v>-104.429</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>47039.862508</v>
+        <v>47039.862507999998</v>
       </c>
       <c r="V22" s="1">
         <v>13.066628</v>
       </c>
       <c r="W22" s="1">
-        <v>955.666000</v>
+        <v>955.66600000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.482100</v>
+        <v>-89.482100000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>47050.336061</v>
+        <v>47050.336061000002</v>
       </c>
       <c r="AA22" s="1">
         <v>13.069538</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.999000</v>
+        <v>962.99900000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.626100</v>
+        <v>-77.626099999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>47060.747552</v>
+        <v>47060.747552000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.072430</v>
+        <v>13.072430000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.751000</v>
+        <v>967.75099999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.350400</v>
+        <v>-75.350399999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>47071.266705</v>
+        <v>47071.266705000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.075352</v>
+        <v>13.075352000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.032000</v>
+        <v>975.03200000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-80.023800</v>
+        <v>-80.023799999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>47082.539313</v>
+        <v>47082.539313000001</v>
       </c>
       <c r="AP22" s="1">
         <v>13.078483</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.161000</v>
+        <v>983.16099999999994</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.635600</v>
+        <v>-91.635599999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>47093.616931</v>
+        <v>47093.616930999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.081560</v>
+        <v>13.08156</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.065000</v>
+        <v>993.06500000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.378000</v>
+        <v>-109.378</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>47104.647493</v>
+        <v>47104.647492999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.084624</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.024000</v>
+        <v>-125.024</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>47115.768758</v>
+        <v>47115.768757999998</v>
       </c>
       <c r="BE22" s="1">
         <v>13.087714</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.030000</v>
+        <v>1040.03</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.295000</v>
+        <v>-197.29499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>47127.161863</v>
+        <v>47127.161863000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.090878</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.770000</v>
+        <v>1106.77</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.691000</v>
+        <v>-314.69099999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>47138.128904</v>
+        <v>47138.128903999997</v>
       </c>
       <c r="BO22" s="1">
         <v>13.093925</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.240000</v>
+        <v>1215.24</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.025000</v>
+        <v>-500.02499999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>47148.469533</v>
+        <v>47148.469533000003</v>
       </c>
       <c r="BT22" s="1">
         <v>13.096797</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.030000</v>
+        <v>1337.03</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.808000</v>
+        <v>-703.80799999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>47159.417731</v>
+        <v>47159.417731000001</v>
       </c>
       <c r="BY22" s="1">
         <v>13.099838</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.990000</v>
+        <v>1473.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-920.451000</v>
+        <v>-920.45100000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>47172.377660</v>
+        <v>47172.377659999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.103438</v>
+        <v>13.103438000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1833.770000</v>
+        <v>1833.77</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1435.860000</v>
+        <v>-1435.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>46997.930263</v>
+        <v>46997.930263000002</v>
       </c>
       <c r="B23" s="1">
         <v>13.054981</v>
       </c>
       <c r="C23" s="1">
-        <v>899.592000</v>
+        <v>899.59199999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.667000</v>
+        <v>-199.667</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>47008.672612</v>
+        <v>47008.672612000002</v>
       </c>
       <c r="G23" s="1">
-        <v>13.057965</v>
+        <v>13.057964999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>918.180000</v>
+        <v>918.18</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.616000</v>
+        <v>-169.61600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>47019.191246</v>
+        <v>47019.191246000002</v>
       </c>
       <c r="L23" s="1">
         <v>13.060886</v>
       </c>
       <c r="M23" s="1">
-        <v>941.754000</v>
+        <v>941.75400000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.698000</v>
+        <v>-120.69799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>47029.732713</v>
+        <v>47029.732712999998</v>
       </c>
       <c r="Q23" s="1">
         <v>13.063815</v>
       </c>
       <c r="R23" s="1">
-        <v>948.826000</v>
+        <v>948.82600000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.433000</v>
+        <v>-104.43300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>47040.204747</v>
+        <v>47040.204747000003</v>
       </c>
       <c r="V23" s="1">
-        <v>13.066724</v>
+        <v>13.066724000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>955.727000</v>
+        <v>955.72699999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.425800</v>
+        <v>-89.425799999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>47050.685740</v>
+        <v>47050.685740000001</v>
       </c>
       <c r="AA23" s="1">
         <v>13.069635</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.956000</v>
+        <v>962.95600000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.630100</v>
+        <v>-77.630099999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>47061.436494</v>
+        <v>47061.436494000001</v>
       </c>
       <c r="AF23" s="1">
         <v>13.072621</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.780000</v>
+        <v>967.78</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.299000</v>
+        <v>-75.299000000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>47071.962128</v>
+        <v>47071.962127999999</v>
       </c>
       <c r="AK23" s="1">
         <v>13.075545</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.050000</v>
+        <v>975.05</v>
       </c>
       <c r="AM23" s="1">
-        <v>-80.025900</v>
+        <v>-80.025899999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>47082.898386</v>
+        <v>47082.898386000001</v>
       </c>
       <c r="AP23" s="1">
         <v>13.078583</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.175000</v>
+        <v>983.17499999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.628400</v>
+        <v>-91.628399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>47093.982980</v>
+        <v>47093.982980000001</v>
       </c>
       <c r="AU23" s="1">
         <v>13.081662</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.054000</v>
+        <v>993.05399999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.347000</v>
+        <v>-109.34699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>47105.035365</v>
+        <v>47105.035365000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.084732</v>
+        <v>13.084732000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.062000</v>
+        <v>-125.062</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>47116.430421</v>
+        <v>47116.430420999997</v>
       </c>
       <c r="BE23" s="1">
         <v>13.087897</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.050000</v>
+        <v>1040.05</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.306000</v>
+        <v>-197.30600000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>47127.601816</v>
+        <v>47127.601816000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.091001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.770000</v>
+        <v>1106.77</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.732000</v>
+        <v>-314.73200000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>47138.241000</v>
+        <v>47138.241000000002</v>
       </c>
       <c r="BO23" s="1">
         <v>13.093956</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.230000</v>
+        <v>1215.23</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.031000</v>
+        <v>-500.03100000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>47148.881179</v>
+        <v>47148.881179000004</v>
       </c>
       <c r="BT23" s="1">
         <v>13.096911</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.160000</v>
+        <v>1337.16</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.885000</v>
+        <v>-703.88499999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>47159.848716</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.099958</v>
+        <v>13.099958000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.970000</v>
+        <v>1473.97</v>
       </c>
       <c r="CA23" s="1">
-        <v>-920.602000</v>
+        <v>-920.60199999999998</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>47172.906396</v>
+        <v>47172.906395999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.103585</v>
+        <v>13.103585000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1832.250000</v>
+        <v>1832.25</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1436.770000</v>
+        <v>-1436.77</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>46998.211495</v>
+        <v>46998.211495000003</v>
       </c>
       <c r="B24" s="1">
         <v>13.055059</v>
       </c>
       <c r="C24" s="1">
-        <v>899.809000</v>
+        <v>899.80899999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.599000</v>
+        <v>-199.59899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>47009.019811</v>
+        <v>47009.019810999998</v>
       </c>
       <c r="G24" s="1">
         <v>13.058061</v>
       </c>
       <c r="H24" s="1">
-        <v>918.127000</v>
+        <v>918.12699999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.013000</v>
+        <v>-169.01300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>47019.534471</v>
+        <v>47019.534470999999</v>
       </c>
       <c r="L24" s="1">
-        <v>13.060982</v>
+        <v>13.060981999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>941.781000</v>
+        <v>941.78099999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.841000</v>
+        <v>-120.84099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>47030.080904</v>
+        <v>47030.080904000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.063911</v>
+        <v>13.063910999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.812000</v>
+        <v>948.81200000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.463000</v>
+        <v>-104.46299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>47040.872857</v>
+        <v>47040.872857000002</v>
       </c>
       <c r="V24" s="1">
-        <v>13.066909</v>
+        <v>13.066909000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>955.564000</v>
+        <v>955.56399999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.345300</v>
+        <v>-89.345299999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>47051.382587</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.069828</v>
+        <v>13.069827999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.925000</v>
+        <v>962.92499999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.625000</v>
+        <v>-77.625</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>47061.778734</v>
@@ -6225,133 +6641,133 @@
         <v>13.072716</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.854000</v>
+        <v>967.85400000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.397400</v>
+        <v>-75.397400000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>47072.310815</v>
+        <v>47072.310814999997</v>
       </c>
       <c r="AK24" s="1">
         <v>13.075642</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.044000</v>
+        <v>975.04399999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-80.045800</v>
+        <v>-80.0458</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>47083.258976</v>
+        <v>47083.258975999997</v>
       </c>
       <c r="AP24" s="1">
         <v>13.078683</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.168000</v>
+        <v>983.16800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.616800</v>
+        <v>-91.616799999999998</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>47094.657538</v>
+        <v>47094.657537999999</v>
       </c>
       <c r="AU24" s="1">
         <v>13.081849</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.078000</v>
+        <v>993.07799999999997</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.363000</v>
+        <v>-109.363</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>47105.710883</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.084920</v>
+        <v>13.08492</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>47116.850037</v>
+        <v>47116.850036999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.088014</v>
+        <v>13.088013999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.060000</v>
+        <v>1040.06</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.307000</v>
+        <v>-197.30699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>47127.975800</v>
+        <v>47127.9758</v>
       </c>
       <c r="BJ24" s="1">
         <v>13.091104</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.733000</v>
+        <v>-314.733</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>47138.657671</v>
+        <v>47138.657671000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.094072</v>
+        <v>13.094072000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-499.985000</v>
+        <v>-499.98500000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>47149.309738</v>
+        <v>47149.309738000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.097030</v>
+        <v>13.09703</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.220000</v>
+        <v>1337.22</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.857000</v>
+        <v>-703.85699999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>47160.271835</v>
@@ -6360,225 +6776,225 @@
         <v>13.100076</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.000000</v>
+        <v>1474</v>
       </c>
       <c r="CA24" s="1">
-        <v>-920.563000</v>
+        <v>-920.56299999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>47173.445546</v>
+        <v>47173.445546000003</v>
       </c>
       <c r="CD24" s="1">
         <v>13.103735</v>
       </c>
       <c r="CE24" s="1">
-        <v>1833.600000</v>
+        <v>1833.6</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1436.450000</v>
+        <v>-1436.45</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>46998.554690</v>
+        <v>46998.554689999997</v>
       </c>
       <c r="B25" s="1">
         <v>13.055154</v>
       </c>
       <c r="C25" s="1">
-        <v>899.772000</v>
+        <v>899.77200000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.689000</v>
+        <v>-199.68899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>47009.363011</v>
+        <v>47009.363011000001</v>
       </c>
       <c r="G25" s="1">
         <v>13.058156</v>
       </c>
       <c r="H25" s="1">
-        <v>917.797000</v>
+        <v>917.79700000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.613000</v>
+        <v>-169.613</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>47019.881205</v>
+        <v>47019.881204999998</v>
       </c>
       <c r="L25" s="1">
         <v>13.061078</v>
       </c>
       <c r="M25" s="1">
-        <v>941.756000</v>
+        <v>941.75599999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.645000</v>
+        <v>-120.645</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>47030.778811</v>
+        <v>47030.778810999996</v>
       </c>
       <c r="Q25" s="1">
         <v>13.064105</v>
       </c>
       <c r="R25" s="1">
-        <v>948.830000</v>
+        <v>948.83</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.467000</v>
+        <v>-104.467</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>47041.235433</v>
+        <v>47041.235433000002</v>
       </c>
       <c r="V25" s="1">
-        <v>13.067010</v>
+        <v>13.06701</v>
       </c>
       <c r="W25" s="1">
-        <v>955.622000</v>
+        <v>955.62199999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.349700</v>
+        <v>-89.349699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>47051.725323</v>
+        <v>47051.725322999999</v>
       </c>
       <c r="AA25" s="1">
         <v>13.069924</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.963000</v>
+        <v>962.96299999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.673500</v>
+        <v>-77.673500000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>47062.121688</v>
+        <v>47062.121687999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>13.072812</v>
+        <v>13.072812000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.718000</v>
+        <v>967.71799999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.355100</v>
+        <v>-75.355099999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>47072.660997</v>
+        <v>47072.660996999999</v>
       </c>
       <c r="AK25" s="1">
         <v>13.075739</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.045000</v>
+        <v>975.04499999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-80.034500</v>
+        <v>-80.034499999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>47083.925632</v>
+        <v>47083.925631999999</v>
       </c>
       <c r="AP25" s="1">
         <v>13.078868</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.175000</v>
+        <v>983.17499999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.640300</v>
+        <v>-91.640299999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>47095.109890</v>
+        <v>47095.10989</v>
       </c>
       <c r="AU25" s="1">
         <v>13.081975</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.074000</v>
+        <v>993.07399999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.364000</v>
+        <v>-109.364</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>47106.114131</v>
+        <v>47106.114131000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.085032</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.330000</v>
+        <v>1001.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>47117.239893</v>
+        <v>47117.239892999998</v>
       </c>
       <c r="BE25" s="1">
         <v>13.088122</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.060000</v>
+        <v>1040.06</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.293000</v>
+        <v>-197.29300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>47128.355765</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.091210</v>
+        <v>13.09121</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.737000</v>
+        <v>-314.73700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>47139.054935</v>
@@ -6587,317 +7003,318 @@
         <v>13.094182</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.047000</v>
+        <v>-500.04700000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>47149.725866</v>
+        <v>47149.725866000001</v>
       </c>
       <c r="BT25" s="1">
         <v>13.097146</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.330000</v>
+        <v>1337.33</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.911000</v>
+        <v>-703.91099999999994</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>47160.689930</v>
+        <v>47160.68993</v>
       </c>
       <c r="BY25" s="1">
         <v>13.100192</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.010000</v>
+        <v>1474.01</v>
       </c>
       <c r="CA25" s="1">
-        <v>-920.576000</v>
+        <v>-920.57600000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>47173.985690</v>
+        <v>47173.985690000001</v>
       </c>
       <c r="CD25" s="1">
         <v>13.103885</v>
       </c>
       <c r="CE25" s="1">
-        <v>1832.400000</v>
+        <v>1832.4</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1435.740000</v>
+        <v>-1435.74</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>46998.896928</v>
+        <v>46998.896928000002</v>
       </c>
       <c r="B26" s="1">
         <v>13.055249</v>
       </c>
       <c r="C26" s="1">
-        <v>899.755000</v>
+        <v>899.755</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.712000</v>
+        <v>-199.71199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>47010.053442</v>
+        <v>47010.053441999997</v>
       </c>
       <c r="G26" s="1">
-        <v>13.058348</v>
+        <v>13.058348000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.850000</v>
+        <v>917.85</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.359000</v>
+        <v>-169.35900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>47020.576100</v>
+        <v>47020.576099999998</v>
       </c>
       <c r="L26" s="1">
         <v>13.061271</v>
       </c>
       <c r="M26" s="1">
-        <v>941.809000</v>
+        <v>941.80899999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.787000</v>
+        <v>-120.78700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>47031.127959</v>
+        <v>47031.127958999998</v>
       </c>
       <c r="Q26" s="1">
         <v>13.064202</v>
       </c>
       <c r="R26" s="1">
-        <v>948.794000</v>
+        <v>948.79399999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.445000</v>
+        <v>-104.44499999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>47041.580152</v>
+        <v>47041.580152000002</v>
       </c>
       <c r="V26" s="1">
-        <v>13.067106</v>
+        <v>13.067106000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.619000</v>
+        <v>955.61900000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.370200</v>
+        <v>-89.370199999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>47052.081948</v>
+        <v>47052.081947999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>13.070023</v>
+        <v>13.070023000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.972000</v>
+        <v>962.97199999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.608400</v>
+        <v>-77.608400000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>47062.767260</v>
+        <v>47062.767260000001</v>
       </c>
       <c r="AF26" s="1">
         <v>13.072991</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.757000</v>
+        <v>967.75699999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.330300</v>
+        <v>-75.330299999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>47073.327087</v>
+        <v>47073.327086999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.075924</v>
+        <v>13.075924000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.034000</v>
+        <v>975.03399999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-80.056700</v>
+        <v>-80.056700000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>47084.367039</v>
+        <v>47084.367038999997</v>
       </c>
       <c r="AP26" s="1">
         <v>13.078991</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.178000</v>
+        <v>983.178</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.613300</v>
+        <v>-91.613299999999995</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>47095.472465</v>
+        <v>47095.472464999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.082076</v>
+        <v>13.082076000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.072000</v>
+        <v>993.072</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.337000</v>
+        <v>-109.337</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>47106.543172</v>
+        <v>47106.543171999998</v>
       </c>
       <c r="AZ26" s="1">
         <v>13.085151</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.340000</v>
+        <v>1001.34</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.054000</v>
+        <v>-125.054</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>47117.601973</v>
+        <v>47117.601972999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.088223</v>
+        <v>13.088222999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.060000</v>
+        <v>1040.06</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.319000</v>
+        <v>-197.31899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>47128.773365</v>
+        <v>47128.773365000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.091326</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.810000</v>
+        <v>1106.81</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.736000</v>
+        <v>-314.73599999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>47139.490919</v>
+        <v>47139.490919000003</v>
       </c>
       <c r="BO26" s="1">
         <v>13.094303</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.026000</v>
+        <v>-500.02600000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>47150.142506</v>
+        <v>47150.142505999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.097262</v>
+        <v>13.097262000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.410000</v>
+        <v>1337.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.817000</v>
+        <v>-703.81700000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>47161.117515</v>
+        <v>47161.117514999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.100310</v>
+        <v>13.10031</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.950000</v>
+        <v>1473.95</v>
       </c>
       <c r="CA26" s="1">
-        <v>-920.562000</v>
+        <v>-920.56200000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>47174.523354</v>
+        <v>47174.523353999997</v>
       </c>
       <c r="CD26" s="1">
         <v>13.104034</v>
       </c>
       <c r="CE26" s="1">
-        <v>1833.330000</v>
+        <v>1833.33</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1437.100000</v>
+        <v>-1437.1</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>